--- a/Projet H .xlsx
+++ b/Projet H .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasnaman/Documents/repositories/github/ProjectH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B671F0-C8C5-5147-BAE5-2C17B5CB3B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC75F43-40A7-724A-A3B0-D6E8C04D45BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{96725BC6-9D61-D946-ACC6-F49C8AF78C90}"/>
+    <workbookView xWindow="49180" yWindow="1060" windowWidth="30600" windowHeight="19620" xr2:uid="{96725BC6-9D61-D946-ACC6-F49C8AF78C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>lucas naman</author>
+  </authors>
+  <commentList>
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{EA5F0340-2571-4A43-A3DE-DBEE36606772}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lucas naman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Nom</t>
   </si>
@@ -101,9 +135,6 @@
     <t>Création d’une pwa</t>
   </si>
   <si>
-    <t>Mise en place de la base de données et mise en place du projet Gcloud (montée en compétence sur la plateforme Gcloud: Quels produit utilisé dans Cloud, comment utilisé Gcloud, quelle type de base de donné GCloud utiliser et installations éventuelles.)</t>
-  </si>
-  <si>
     <t>Inscription (messages d'erreurs, un design responsif, et une communication avec l'api)</t>
   </si>
   <si>
@@ -112,12 +143,18 @@
   <si>
     <t>Connexion / déconnexion d’une plateforme (montée en compétence Python / Flask, module de gestion de tokens JWT (création, vérification, suppression etc…), routes correspondantes)</t>
   </si>
+  <si>
+    <t>montée en compétence sur la plateforme Gcloud:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de la base de données et mise en place du projet Gcloud </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +179,19 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -243,11 +293,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3337,8 +3396,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4210" y="117961"/>
-          <a:ext cx="5854068" cy="910976"/>
+          <a:off x="4172" y="120532"/>
+          <a:ext cx="5801683" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3406,8 +3465,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="30892" y="144643"/>
-        <a:ext cx="5800704" cy="857612"/>
+        <a:off x="33185" y="149545"/>
+        <a:ext cx="5743657" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A685D5A6-FB4F-40C3-9D4D-641FCEFF78C6}">
@@ -3417,8 +3476,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3486,8 +3545,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{714A2382-BA29-4873-98C5-0595538ACE08}">
@@ -3497,8 +3556,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3566,8 +3625,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5670C658-09D7-0044-AC3B-3E0FA1548885}">
@@ -3577,8 +3636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3646,8 +3705,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E0809A3B-E53A-4745-B00B-F6CAE2AD2BFD}">
@@ -3657,8 +3716,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="3894994"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="4210616"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3726,8 +3785,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="3921676"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="4239629"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B6AF4547-286F-E346-A39E-179261347150}">
@@ -3737,8 +3796,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3806,8 +3865,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C449016B-1D83-C944-B576-3DCF4B3D26AE}">
@@ -3817,8 +3876,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3886,8 +3945,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F27A1DE4-34F2-0A48-A763-6447F5638BB0}">
@@ -3897,8 +3956,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3966,8 +4025,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{610A8526-B6E7-452B-8405-E52290E2A5AF}">
@@ -3977,8 +4036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4046,8 +4105,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{24985215-A5A6-440E-9D78-1598A4D9975B}">
@@ -4057,8 +4116,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4126,8 +4185,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B94672AC-D5F5-4194-8955-5B5B010A489E}">
@@ -4137,8 +4196,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4010403" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3974516" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4206,8 +4265,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4037085" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4003529" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A7D472D1-983A-174B-A53A-A76CFB0F650F}">
@@ -4217,8 +4276,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="3894994"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="4210616"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4286,8 +4345,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="3921676"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="4239629"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4309,8 +4368,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4210" y="117961"/>
-          <a:ext cx="5854068" cy="910976"/>
+          <a:off x="4172" y="120532"/>
+          <a:ext cx="5801683" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4378,8 +4437,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="30892" y="144643"/>
-        <a:ext cx="5800704" cy="857612"/>
+        <a:off x="33185" y="149545"/>
+        <a:ext cx="5743657" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A685D5A6-FB4F-40C3-9D4D-641FCEFF78C6}">
@@ -4389,8 +4448,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4458,8 +4517,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{714A2382-BA29-4873-98C5-0595538ACE08}">
@@ -4469,8 +4528,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4538,8 +4597,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D2038463-75F3-4989-A25B-B90B15E9FB39}">
@@ -4549,8 +4608,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2105" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="2086" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4618,8 +4677,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28787" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="31099" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B6AF4547-286F-E346-A39E-179261347150}">
@@ -4629,8 +4688,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4698,8 +4757,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C449016B-1D83-C944-B576-3DCF4B3D26AE}">
@@ -4709,8 +4768,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4778,8 +4837,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F27A1DE4-34F2-0A48-A763-6447F5638BB0}">
@@ -4789,8 +4848,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2005201" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="1987258" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4876,8 +4935,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2031883" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="2016271" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{610A8526-B6E7-452B-8405-E52290E2A5AF}">
@@ -4887,8 +4946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="975608"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="1053126"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4956,8 +5015,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="1002290"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="1082139"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{24985215-A5A6-440E-9D78-1598A4D9975B}">
@@ -4967,8 +5026,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="1948737"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="2105623"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5036,8 +5095,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="1975419"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="2134636"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B94672AC-D5F5-4194-8955-5B5B010A489E}">
@@ -5047,8 +5106,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4010403" y="2921866"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3974516" y="3158119"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5116,8 +5175,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4037085" y="2948548"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4003529" y="3187132"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A7D472D1-983A-174B-A53A-A76CFB0F650F}">
@@ -5127,8 +5186,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4008298" y="3894994"/>
-          <a:ext cx="1847875" cy="910976"/>
+          <a:off x="3972430" y="4210616"/>
+          <a:ext cx="1831339" cy="990582"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5196,8 +5255,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4034980" y="3921676"/>
-        <a:ext cx="1794511" cy="857612"/>
+        <a:off x="4001443" y="4239629"/>
+        <a:ext cx="1773313" cy="932556"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8328,7 +8387,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>39370</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>607060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8364,7 +8423,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>39370</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>607060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8689,11 +8748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D6B46-E972-994F-B88D-338A6A3E8180}">
-  <dimension ref="D5:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D6B46-E972-994F-B88D-338A6A3E8180}">
+  <dimension ref="D5:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8743,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -8760,229 +8819,248 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="4:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" s="11" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+    <row r="13" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+    <row r="14" spans="4:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>10</v>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="15" spans="4:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
+    <row r="17" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+    <row r="19" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
+    <row r="21" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>